--- a/IrbAnalyser/status.xlsx
+++ b/IrbAnalyser/status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>StudyId</t>
   </si>
@@ -33,28 +33,49 @@
     <t>Sitename</t>
   </si>
   <si>
-    <t>SiteSampleSize</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>ValidOn</t>
   </si>
   <si>
-    <t>ValidUntill</t>
-  </si>
-  <si>
     <t>BRANY</t>
   </si>
   <si>
     <t>Einstein</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Closed</t>
+    <t>2015-01-12T22:22:12</t>
+  </si>
+  <si>
+    <t>2015-04-17T02:22:12</t>
+  </si>
+  <si>
+    <t>2015-03-12T08:22:12</t>
+  </si>
+  <si>
+    <t>"654654"</t>
+  </si>
+  <si>
+    <t>"4564654"</t>
+  </si>
+  <si>
+    <t>"632132"</t>
+  </si>
+  <si>
+    <t>"64654"</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t>"123465498"</t>
+  </si>
+  <si>
+    <t>"Approved"</t>
+  </si>
+  <si>
+    <t>"Closed"</t>
   </si>
 </sst>
 </file>
@@ -100,27 +121,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,26 +138,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -458,187 +455,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>654654</v>
-      </c>
-      <c r="B2">
-        <v>632132</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>12345</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5">
-        <v>42104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>654654</v>
-      </c>
-      <c r="B3" s="6">
-        <v>632132</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>42104</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>4564654</v>
-      </c>
-      <c r="B4" s="6">
-        <v>64654</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6">
-        <v>123465498</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5">
-        <v>42104</v>
-      </c>
-      <c r="I4" s="5">
-        <v>42134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IrbAnalyser/status.xlsx
+++ b/IrbAnalyser/status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>StudyId</t>
   </si>
@@ -42,9 +42,6 @@
     <t>BRANY</t>
   </si>
   <si>
-    <t>Einstein</t>
-  </si>
-  <si>
     <t>2015-01-12T22:22:12</t>
   </si>
   <si>
@@ -54,28 +51,28 @@
     <t>2015-03-12T08:22:12</t>
   </si>
   <si>
-    <t>"654654"</t>
-  </si>
-  <si>
-    <t>"4564654"</t>
-  </si>
-  <si>
-    <t>"632132"</t>
-  </si>
-  <si>
-    <t>"64654"</t>
-  </si>
-  <si>
-    <t>"12345"</t>
-  </si>
-  <si>
-    <t>"123465498"</t>
-  </si>
-  <si>
-    <t>"Approved"</t>
-  </si>
-  <si>
-    <t>"Closed"</t>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Westchester Cardiology</t>
+  </si>
+  <si>
+    <t>Albert Einstein Col. of Med. of Yeshiva University</t>
+  </si>
+  <si>
+    <t>Withdrawn by PI/Institution</t>
+  </si>
+  <si>
+    <t>PENDING VETTING</t>
+  </si>
+  <si>
+    <t>Other than Human Subject Rsrch</t>
+  </si>
+  <si>
+    <t>Pending Closure</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,6 +146,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -458,7 +456,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,26 +495,26 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
+      <c r="A2" s="5">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="5">
+        <v>632132</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
+      <c r="D2" s="5">
+        <v>12345</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -524,26 +522,26 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
+      <c r="A3" s="5">
+        <v>12345</v>
+      </c>
+      <c r="B3" s="5">
+        <v>632132</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
+      <c r="D3" s="5">
+        <v>12345</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
@@ -551,26 +549,26 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
+      <c r="A4" s="5">
+        <v>12345</v>
+      </c>
+      <c r="B4" s="5">
+        <v>632132</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
+      <c r="D4" s="5">
+        <v>12345</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -578,64 +576,132 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="5">
+        <v>4564654</v>
+      </c>
+      <c r="B5" s="5">
+        <v>64654</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>123465498</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="2">
+        <v>54321</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5432122</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>54321</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="2">
+        <v>54321</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5432122</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>54321</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="5">
+        <v>4564654</v>
+      </c>
+      <c r="B8" s="5">
+        <v>64654</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>123465498</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="6">
+        <v>6554444</v>
+      </c>
+      <c r="B9" s="6">
+        <v>654444</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>56653321</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
